--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.84401633333333</v>
+        <v>12.227772</v>
       </c>
       <c r="H2">
-        <v>47.532049</v>
+        <v>36.683316</v>
       </c>
       <c r="I2">
-        <v>0.7212145038223592</v>
+        <v>0.6223179025846677</v>
       </c>
       <c r="J2">
-        <v>0.7256686596529557</v>
+        <v>0.6245980896688198</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N2">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O2">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P2">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q2">
-        <v>887.5069584228522</v>
+        <v>465.95628942232</v>
       </c>
       <c r="R2">
-        <v>7987.56262580567</v>
+        <v>4193.60660480088</v>
       </c>
       <c r="S2">
-        <v>0.3522135157476977</v>
+        <v>0.2384398072880829</v>
       </c>
       <c r="T2">
-        <v>0.3800444045545683</v>
+        <v>0.2598268081873799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.84401633333333</v>
+        <v>12.227772</v>
       </c>
       <c r="H3">
-        <v>47.532049</v>
+        <v>36.683316</v>
       </c>
       <c r="I3">
-        <v>0.7212145038223592</v>
+        <v>0.6223179025846677</v>
       </c>
       <c r="J3">
-        <v>0.7256686596529557</v>
+        <v>0.6245980896688198</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P3">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q3">
-        <v>144.964573937572</v>
+        <v>111.877804269648</v>
       </c>
       <c r="R3">
-        <v>1304.681165438148</v>
+        <v>1006.900238426832</v>
       </c>
       <c r="S3">
-        <v>0.05753023315575235</v>
+        <v>0.05725026723631323</v>
       </c>
       <c r="T3">
-        <v>0.06207610504994173</v>
+        <v>0.06238536414313419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.84401633333333</v>
+        <v>12.227772</v>
       </c>
       <c r="H4">
-        <v>47.532049</v>
+        <v>36.683316</v>
       </c>
       <c r="I4">
-        <v>0.7212145038223592</v>
+        <v>0.6223179025846677</v>
       </c>
       <c r="J4">
-        <v>0.7256686596529557</v>
+        <v>0.6245980896688198</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N4">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O4">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P4">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q4">
-        <v>192.172787087735</v>
+        <v>183.705130963656</v>
       </c>
       <c r="R4">
-        <v>1729.555083789615</v>
+        <v>1653.346178672904</v>
       </c>
       <c r="S4">
-        <v>0.0762651518715823</v>
+        <v>0.09400584779982576</v>
       </c>
       <c r="T4">
-        <v>0.08229140261630825</v>
+        <v>0.1024377584539262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.84401633333333</v>
+        <v>12.227772</v>
       </c>
       <c r="H5">
-        <v>47.532049</v>
+        <v>36.683316</v>
       </c>
       <c r="I5">
-        <v>0.7212145038223592</v>
+        <v>0.6223179025846677</v>
       </c>
       <c r="J5">
-        <v>0.7256686596529557</v>
+        <v>0.6245980896688198</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N5">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O5">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P5">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q5">
-        <v>368.0443312187894</v>
+        <v>288.039891697488</v>
       </c>
       <c r="R5">
-        <v>2208.265987312736</v>
+        <v>1728.239350184928</v>
       </c>
       <c r="S5">
-        <v>0.1460610383043529</v>
+        <v>0.1473961781968372</v>
       </c>
       <c r="T5">
-        <v>0.105068238155031</v>
+        <v>0.1070779776119946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.84401633333333</v>
+        <v>12.227772</v>
       </c>
       <c r="H6">
-        <v>47.532049</v>
+        <v>36.683316</v>
       </c>
       <c r="I6">
-        <v>0.7212145038223592</v>
+        <v>0.6223179025846677</v>
       </c>
       <c r="J6">
-        <v>0.7256686596529557</v>
+        <v>0.6245980896688198</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N6">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O6">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P6">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q6">
-        <v>224.6263075595303</v>
+        <v>166.54726802652</v>
       </c>
       <c r="R6">
-        <v>2021.636768035773</v>
+        <v>1498.92541223868</v>
       </c>
       <c r="S6">
-        <v>0.08914456474297394</v>
+        <v>0.08522580206360852</v>
       </c>
       <c r="T6">
-        <v>0.09618850927710643</v>
+        <v>0.09287018127238503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.951312666666666</v>
+        <v>3.888411</v>
       </c>
       <c r="H7">
-        <v>8.853937999999999</v>
+        <v>11.665233</v>
       </c>
       <c r="I7">
-        <v>0.1343427989301267</v>
+        <v>0.1978960499023984</v>
       </c>
       <c r="J7">
-        <v>0.1351724879588164</v>
+        <v>0.1986211455731449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N7">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O7">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P7">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q7">
-        <v>165.3185955531711</v>
+        <v>148.17331900766</v>
       </c>
       <c r="R7">
-        <v>1487.86735997854</v>
+        <v>1333.55987106894</v>
       </c>
       <c r="S7">
-        <v>0.06560787293626115</v>
+        <v>0.07582345904853817</v>
       </c>
       <c r="T7">
-        <v>0.07079201645973783</v>
+        <v>0.08262448948595849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.951312666666666</v>
+        <v>3.888411</v>
       </c>
       <c r="H8">
-        <v>8.853937999999999</v>
+        <v>11.665233</v>
       </c>
       <c r="I8">
-        <v>0.1343427989301267</v>
+        <v>0.1978960499023984</v>
       </c>
       <c r="J8">
-        <v>0.1351724879588164</v>
+        <v>0.1986211455731449</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P8">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q8">
-        <v>27.002988022664</v>
+        <v>35.57695422992399</v>
       </c>
       <c r="R8">
-        <v>243.026892203976</v>
+        <v>320.1925880693159</v>
       </c>
       <c r="S8">
-        <v>0.01071632989115566</v>
+        <v>0.01820548901914592</v>
       </c>
       <c r="T8">
-        <v>0.01156310314738737</v>
+        <v>0.01983844122814594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.951312666666666</v>
+        <v>3.888411</v>
       </c>
       <c r="H9">
-        <v>8.853937999999999</v>
+        <v>11.665233</v>
       </c>
       <c r="I9">
-        <v>0.1343427989301267</v>
+        <v>0.1978960499023984</v>
       </c>
       <c r="J9">
-        <v>0.1351724879588164</v>
+        <v>0.1986211455731449</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N9">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O9">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P9">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q9">
-        <v>35.79660414307</v>
+        <v>58.41792372277799</v>
       </c>
       <c r="R9">
-        <v>322.16943728763</v>
+        <v>525.7613135050019</v>
       </c>
       <c r="S9">
-        <v>0.01420613965603657</v>
+        <v>0.02989370202921417</v>
       </c>
       <c r="T9">
-        <v>0.01532866754172182</v>
+        <v>0.03257503548378148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.951312666666666</v>
+        <v>3.888411</v>
       </c>
       <c r="H10">
-        <v>8.853937999999999</v>
+        <v>11.665233</v>
       </c>
       <c r="I10">
-        <v>0.1343427989301267</v>
+        <v>0.1978960499023984</v>
       </c>
       <c r="J10">
-        <v>0.1351724879588164</v>
+        <v>0.1986211455731449</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N10">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O10">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P10">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q10">
-        <v>68.55672663853868</v>
+        <v>91.59620275184399</v>
       </c>
       <c r="R10">
-        <v>411.340359831232</v>
+        <v>549.577216511064</v>
       </c>
       <c r="S10">
-        <v>0.02720722974434293</v>
+        <v>0.04687173760342782</v>
       </c>
       <c r="T10">
-        <v>0.01957137733308906</v>
+        <v>0.03405061739818452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.951312666666666</v>
+        <v>3.888411</v>
       </c>
       <c r="H11">
-        <v>8.853937999999999</v>
+        <v>11.665233</v>
       </c>
       <c r="I11">
-        <v>0.1343427989301267</v>
+        <v>0.1978960499023984</v>
       </c>
       <c r="J11">
-        <v>0.1351724879588164</v>
+        <v>0.1986211455731449</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N11">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O11">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P11">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q11">
-        <v>41.84181919658067</v>
+        <v>52.96175206851</v>
       </c>
       <c r="R11">
-        <v>376.576372769226</v>
+        <v>476.65576861659</v>
       </c>
       <c r="S11">
-        <v>0.0166052267023304</v>
+        <v>0.0271016622020723</v>
       </c>
       <c r="T11">
-        <v>0.01791732347688031</v>
+        <v>0.02953256197707447</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.4045285</v>
+        <v>0.215192</v>
       </c>
       <c r="H12">
-        <v>0.809057</v>
+        <v>0.430384</v>
       </c>
       <c r="I12">
-        <v>0.01841400660485959</v>
+        <v>0.01095194072092608</v>
       </c>
       <c r="J12">
-        <v>0.01235181990098599</v>
+        <v>0.007328045922130521</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N12">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O12">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P12">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q12">
-        <v>22.65977584705167</v>
+        <v>8.200190994186666</v>
       </c>
       <c r="R12">
-        <v>135.95865508231</v>
+        <v>49.20114596511999</v>
       </c>
       <c r="S12">
-        <v>0.008992694920756047</v>
+        <v>0.004196213260268276</v>
       </c>
       <c r="T12">
-        <v>0.006468847699279814</v>
+        <v>0.003048396742947592</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.4045285</v>
+        <v>0.215192</v>
       </c>
       <c r="H13">
-        <v>0.809057</v>
+        <v>0.430384</v>
       </c>
       <c r="I13">
-        <v>0.01841400660485959</v>
+        <v>0.01095194072092608</v>
       </c>
       <c r="J13">
-        <v>0.01235181990098599</v>
+        <v>0.007328045922130521</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P13">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q13">
-        <v>3.701227038294</v>
+        <v>1.968895760928</v>
       </c>
       <c r="R13">
-        <v>22.207362229764</v>
+        <v>11.813374565568</v>
       </c>
       <c r="S13">
-        <v>0.001468858554139761</v>
+        <v>0.001007526105910113</v>
       </c>
       <c r="T13">
-        <v>0.001056615659960098</v>
+        <v>0.0007319311744166929</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.4045285</v>
+        <v>0.215192</v>
       </c>
       <c r="H14">
-        <v>0.809057</v>
+        <v>0.430384</v>
       </c>
       <c r="I14">
-        <v>0.01841400660485959</v>
+        <v>0.01095194072092608</v>
       </c>
       <c r="J14">
-        <v>0.01235181990098599</v>
+        <v>0.007328045922130521</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N14">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O14">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P14">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q14">
-        <v>4.9065443802825</v>
+        <v>3.232958100816</v>
       </c>
       <c r="R14">
-        <v>29.439266281695</v>
+        <v>19.397748604896</v>
       </c>
       <c r="S14">
-        <v>0.001947197404989845</v>
+        <v>0.001654373863017736</v>
       </c>
       <c r="T14">
-        <v>0.00140070619144869</v>
+        <v>0.001201842609714852</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.4045285</v>
+        <v>0.215192</v>
       </c>
       <c r="H15">
-        <v>0.809057</v>
+        <v>0.430384</v>
       </c>
       <c r="I15">
-        <v>0.01841400660485959</v>
+        <v>0.01095194072092608</v>
       </c>
       <c r="J15">
-        <v>0.01235181990098599</v>
+        <v>0.007328045922130521</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N15">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O15">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P15">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q15">
-        <v>9.396886377112002</v>
+        <v>5.069106651168</v>
       </c>
       <c r="R15">
-        <v>37.58754550844801</v>
+        <v>20.276426604672</v>
       </c>
       <c r="S15">
-        <v>0.003729221902491669</v>
+        <v>0.002593970379766141</v>
       </c>
       <c r="T15">
-        <v>0.001788397414910409</v>
+        <v>0.001256283600876232</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.4045285</v>
+        <v>0.215192</v>
       </c>
       <c r="H16">
-        <v>0.809057</v>
+        <v>0.430384</v>
       </c>
       <c r="I16">
-        <v>0.01841400660485959</v>
+        <v>0.01095194072092608</v>
       </c>
       <c r="J16">
-        <v>0.01235181990098599</v>
+        <v>0.007328045922130521</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N16">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O16">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P16">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q16">
-        <v>5.735145770231501</v>
+        <v>2.93100326872</v>
       </c>
       <c r="R16">
-        <v>34.410874621389</v>
+        <v>17.58601961232</v>
       </c>
       <c r="S16">
-        <v>0.002276033822482267</v>
+        <v>0.001499857111963818</v>
       </c>
       <c r="T16">
-        <v>0.001637252935386983</v>
+        <v>0.001089591794175154</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.768664</v>
+        <v>3.31738</v>
       </c>
       <c r="H17">
-        <v>8.305992</v>
+        <v>9.95214</v>
       </c>
       <c r="I17">
-        <v>0.1260286906426543</v>
+        <v>0.168834106792008</v>
       </c>
       <c r="J17">
-        <v>0.1268070324872419</v>
+        <v>0.1694527188359048</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N17">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O17">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P17">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q17">
-        <v>155.08747995704</v>
+        <v>126.4133871161333</v>
       </c>
       <c r="R17">
-        <v>1395.78731961336</v>
+        <v>1137.7204840452</v>
       </c>
       <c r="S17">
-        <v>0.06154758117185839</v>
+        <v>0.06468843611913443</v>
       </c>
       <c r="T17">
-        <v>0.06641089223557367</v>
+        <v>0.07049070402561072</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.768664</v>
+        <v>3.31738</v>
       </c>
       <c r="H18">
-        <v>8.305992</v>
+        <v>9.95214</v>
       </c>
       <c r="I18">
-        <v>0.1260286906426543</v>
+        <v>0.168834106792008</v>
       </c>
       <c r="J18">
-        <v>0.1268070324872419</v>
+        <v>0.1694527188359048</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P18">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q18">
-        <v>25.331846969376</v>
+        <v>30.35231523192</v>
       </c>
       <c r="R18">
-        <v>227.986622724384</v>
+        <v>273.17083708728</v>
       </c>
       <c r="S18">
-        <v>0.0100531255521893</v>
+        <v>0.01553192940826839</v>
       </c>
       <c r="T18">
-        <v>0.0108474943282158</v>
+        <v>0.01692507509145169</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.768664</v>
+        <v>3.31738</v>
       </c>
       <c r="H19">
-        <v>8.305992</v>
+        <v>9.95214</v>
       </c>
       <c r="I19">
-        <v>0.1260286906426543</v>
+        <v>0.168834106792008</v>
       </c>
       <c r="J19">
-        <v>0.1268070324872419</v>
+        <v>0.1694527188359048</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N19">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O19">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P19">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q19">
-        <v>33.58125024588</v>
+        <v>49.83898353324</v>
       </c>
       <c r="R19">
-        <v>302.23125221292</v>
+        <v>448.55085179916</v>
       </c>
       <c r="S19">
-        <v>0.01332696053822859</v>
+        <v>0.02550367469839853</v>
       </c>
       <c r="T19">
-        <v>0.014380018244108</v>
+        <v>0.02779124203001869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.768664</v>
+        <v>3.31738</v>
       </c>
       <c r="H20">
-        <v>8.305992</v>
+        <v>9.95214</v>
       </c>
       <c r="I20">
-        <v>0.1260286906426543</v>
+        <v>0.168834106792008</v>
       </c>
       <c r="J20">
-        <v>0.1268070324872419</v>
+        <v>0.1694527188359048</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N20">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O20">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P20">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q20">
-        <v>64.31393838604801</v>
+        <v>78.14488002552001</v>
       </c>
       <c r="R20">
-        <v>385.883630316288</v>
+        <v>468.86928015312</v>
       </c>
       <c r="S20">
-        <v>0.02552344872966971</v>
+        <v>0.03998840783313786</v>
       </c>
       <c r="T20">
-        <v>0.01836015833379668</v>
+        <v>0.02905012796856849</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.768664</v>
+        <v>3.31738</v>
       </c>
       <c r="H21">
-        <v>8.305992</v>
+        <v>9.95214</v>
       </c>
       <c r="I21">
-        <v>0.1260286906426543</v>
+        <v>0.168834106792008</v>
       </c>
       <c r="J21">
-        <v>0.1268070324872419</v>
+        <v>0.1694527188359048</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N21">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O21">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P21">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q21">
-        <v>39.252343478376</v>
+        <v>45.18407572580001</v>
       </c>
       <c r="R21">
-        <v>353.271091305384</v>
+        <v>406.6566815322001</v>
       </c>
       <c r="S21">
-        <v>0.01557757465070827</v>
+        <v>0.02312165873306876</v>
       </c>
       <c r="T21">
-        <v>0.01680846934554771</v>
+        <v>0.02519556972025522</v>
       </c>
     </row>
   </sheetData>
